--- a/biology/Botanique/Mammillaria_backebergiana/Mammillaria_backebergiana.xlsx
+++ b/biology/Botanique/Mammillaria_backebergiana/Mammillaria_backebergiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mammillaria backebergiana est une espèce de cactus du genre Mammillaria qui doit son nom au collectionneur de cactées, Curt Backeberg.  Il a été décrit par le naturaliste allemand Buchenau.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mammillaria backebergiana croît plutôt solitaire selon une forme cylindrique qui peut atteindre trente centimètres de hauteur et de cinq à six centimètres de diamètre. Ses axilles sont dénudées avec peu de soies. Elles ont une à trois épines centrales, droites, de couleur brune tirant sur le jaune, qui mesurent entre 0,7 et 0,8 cm. Ses épines radiales au nombre de dix à douze sont blanc-jaunâtre à pointes brunes. Elles mesurent entre 0,8 et 1 cm et foncent avec l'âge.
 Ses fleurs de couleur pourpre, qui s'épanouissent en couronnes en dessus de la colonne cylindrique, mesurent de 1,8 à 2 cm de longueur et de 1 à 1,3 cm de diamètre. Ses fruits blanchâtres en dessous et verdâtres en dessus contiennent des graines brunes.
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Mammillaria backebergiana est endémique du Mexique, dans les zones arides de l'État de Mexico, de l'État de Guerrero et de l'État de Michoacán.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Zones arides.
 </t>
@@ -605,7 +623,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Mammillaria ernestii Fittkau, 1971
 Mammillaria isotensis Repp., 1987
@@ -637,9 +657,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (12 mars 2016)[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (12 mars 2016) :
 sous-espèce Mammillaria backebergiana subsp. backebergiana
 sous-espèce Mammillaria backebergiana subsp. ernestii (Fittkau) D.R.Hunt: sa première description a été faite en 1971 par Hans Werner Fittkau (1913–2002) en tant que Mammillaria ernestii.  David Richard Hunt l'a classé en 1997 comme sous-espèce de Mammillaria backebergiana. On ne le trouve que près de Tonatico, dans l'État de Mexico. Il est de couleur vert foncé avec une seule épine centrale.</t>
         </is>
